--- a/ЭФ.xlsx
+++ b/ЭФ.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="585" windowWidth="22695" windowHeight="16485"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="22695" windowHeight="15780"/>
   </bookViews>
   <sheets>
-    <sheet name="21_03_2017_06_46_37" sheetId="1" r:id="rId1"/>
+    <sheet name="29_04_2017_07_01_28" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1995,26 +1995,20 @@
   <dimension ref="A1:DV11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="DH3" sqref="DH1:EA1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="3.42578125" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="8" width="3.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7" hidden="1" customWidth="1"/>
-    <col min="13" max="91" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="92" max="102" width="8.42578125" customWidth="1"/>
-    <col min="103" max="108" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="109" max="111" width="8.42578125" customWidth="1"/>
-    <col min="112" max="126" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="127" max="131" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="0.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="126" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,7 +3232,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="11">
-        <v>1605</v>
+        <v>1640</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3262,11 +3256,11 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="10">
-        <v>6566.6</v>
+        <v>10697.3</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="9">
-        <v>493.00200000000001</v>
+        <v>972.48400000000004</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -3277,21 +3271,21 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="10">
-        <v>8698</v>
+        <v>13127.2</v>
       </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="9">
-        <v>1002.4589999999999</v>
+        <v>1524.634</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="10">
-        <v>935.5</v>
+        <v>1999.5</v>
       </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="9">
-        <v>212.16200000000001</v>
+        <v>388.36</v>
       </c>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -3301,21 +3295,21 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="10">
-        <v>79836.3</v>
+        <v>83536.800000000003</v>
       </c>
       <c r="BB6" s="1"/>
       <c r="BC6" s="9">
-        <v>6050.5789999999997</v>
+        <v>6216.6620000000003</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="10">
-        <v>99383.1</v>
+        <v>102466.8</v>
       </c>
       <c r="BH6" s="1"/>
       <c r="BI6" s="9">
-        <v>9936.9629999999997</v>
+        <v>10185.704</v>
       </c>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
@@ -3323,75 +3317,75 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
       <c r="BO6" s="10">
-        <v>90442.6</v>
+        <v>93020</v>
       </c>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="9">
-        <v>7119.8470000000198</v>
+        <v>7371.4160000000002</v>
       </c>
       <c r="BR6" s="1"/>
       <c r="BS6" s="10">
-        <v>90639.7</v>
+        <v>92162.3</v>
       </c>
       <c r="BT6" s="1"/>
       <c r="BU6" s="9">
-        <v>7126.799</v>
+        <v>7426.2000000000098</v>
       </c>
       <c r="BV6" s="1"/>
       <c r="BW6" s="10">
-        <v>90114.4</v>
+        <v>90614.5</v>
       </c>
       <c r="BX6" s="1"/>
       <c r="BY6" s="9">
-        <v>7030.96000000002</v>
+        <v>7169.799</v>
       </c>
       <c r="BZ6" s="1"/>
       <c r="CA6" s="10">
-        <v>90489.9</v>
+        <v>91469.3</v>
       </c>
       <c r="CB6" s="1"/>
       <c r="CC6" s="9">
-        <v>7060.4870000000001</v>
+        <v>7153.1379999999999</v>
       </c>
       <c r="CD6" s="1"/>
       <c r="CE6" s="1"/>
       <c r="CF6" s="10">
-        <v>303.5</v>
+        <v>748.8</v>
       </c>
       <c r="CG6" s="8">
-        <v>71.527999999999906</v>
+        <v>100.661</v>
       </c>
       <c r="CH6" s="8">
-        <v>-42.012</v>
+        <v>-117.331</v>
       </c>
       <c r="CI6" s="8">
-        <v>29.526999999999902</v>
+        <v>-16.661000000000101</v>
       </c>
       <c r="CJ6" s="1"/>
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
       <c r="CM6" s="9">
-        <v>29.526999999999902</v>
+        <v>-16.661000000000101</v>
       </c>
       <c r="CN6" s="10">
-        <v>92681.7</v>
+        <v>95877.5</v>
       </c>
       <c r="CO6" s="1"/>
       <c r="CP6" s="9">
-        <v>7372.0060000000103</v>
+        <v>7768.3220000000001</v>
       </c>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="10">
-        <v>92142.8</v>
+        <v>94836.800000000003</v>
       </c>
       <c r="CS6" s="1"/>
       <c r="CT6" s="9">
-        <v>7206.348</v>
+        <v>7472.1840000000002</v>
       </c>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
       <c r="CW6" s="10">
-        <v>-538.9</v>
+        <v>-1040.7</v>
       </c>
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
@@ -3401,44 +3395,44 @@
       <c r="DC6" s="1"/>
       <c r="DD6" s="1"/>
       <c r="DE6" s="8">
-        <v>-126.616</v>
+        <v>-171.31800000000001</v>
       </c>
       <c r="DF6" s="8">
-        <v>-39.055</v>
+        <v>-124.831</v>
       </c>
       <c r="DG6" s="8">
-        <v>-165.65799999999999</v>
+        <v>-296.13799999999998</v>
       </c>
       <c r="DH6" s="1"/>
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="9">
-        <v>-165.65799999999999</v>
+        <v>-296.13799999999998</v>
       </c>
       <c r="DL6" s="1"/>
       <c r="DM6" s="10">
-        <v>837.4</v>
+        <v>1789.5</v>
       </c>
       <c r="DN6" s="8">
-        <v>184.69317349528299</v>
+        <v>268.05152926157302</v>
       </c>
       <c r="DO6" s="8">
-        <v>10.491826504716901</v>
+        <v>11.425470738426601</v>
       </c>
       <c r="DP6" s="8">
-        <v>195.185</v>
+        <v>279.47699999999998</v>
       </c>
       <c r="DQ6" s="1"/>
       <c r="DR6" s="1"/>
       <c r="DS6" s="1"/>
       <c r="DT6" s="9">
-        <v>195.185</v>
+        <v>279.47699999999998</v>
       </c>
       <c r="DU6" s="10">
-        <v>381.9</v>
+        <v>301</v>
       </c>
       <c r="DV6" s="9">
-        <v>127.745</v>
+        <v>267.31700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:126" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,7 +3572,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="11">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3602,11 +3596,11 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="10">
-        <v>5099.5</v>
+        <v>7998</v>
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="9">
-        <v>258.56799999999998</v>
+        <v>559.13799999999901</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -3617,21 +3611,21 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="10">
-        <v>6291</v>
+        <v>9960.2000000000007</v>
       </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="9">
-        <v>419.87200000000001</v>
+        <v>921.76800000000003</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="10">
-        <v>2207.1999999999998</v>
+        <v>3590.2</v>
       </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="9">
-        <v>208.97</v>
+        <v>458.52499999999998</v>
       </c>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -3641,21 +3635,21 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="10">
-        <v>38343.599999999999</v>
+        <v>40712.800000000003</v>
       </c>
       <c r="BB8" s="1"/>
       <c r="BC8" s="9">
-        <v>3215.9520000000002</v>
+        <v>3369.5709999999999</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="10">
-        <v>48101.1</v>
+        <v>49373.599999999999</v>
       </c>
       <c r="BH8" s="1"/>
       <c r="BI8" s="9">
-        <v>5526.2129999999997</v>
+        <v>5654.058</v>
       </c>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
@@ -3663,75 +3657,75 @@
       <c r="BM8" s="1"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="10">
-        <v>38372.9</v>
+        <v>39401.599999999999</v>
       </c>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="9">
-        <v>3812.7570000000001</v>
+        <v>3926.6120000000001</v>
       </c>
       <c r="BR8" s="1"/>
       <c r="BS8" s="10">
-        <v>37592.6</v>
+        <v>38457.199999999997</v>
       </c>
       <c r="BT8" s="1"/>
       <c r="BU8" s="9">
-        <v>3745.7809999999999</v>
+        <v>4017.5189999999998</v>
       </c>
       <c r="BV8" s="1"/>
       <c r="BW8" s="10">
-        <v>38823.4</v>
+        <v>38436.6</v>
       </c>
       <c r="BX8" s="1"/>
       <c r="BY8" s="9">
-        <v>3820.4119999999998</v>
+        <v>3792.942</v>
       </c>
       <c r="BZ8" s="1"/>
       <c r="CA8" s="10">
-        <v>37890.6</v>
+        <v>38794.699999999997</v>
       </c>
       <c r="CB8" s="1"/>
       <c r="CC8" s="9">
-        <v>3770.5729999999999</v>
+        <v>3844.346</v>
       </c>
       <c r="CD8" s="1"/>
       <c r="CE8" s="1"/>
       <c r="CF8" s="10">
-        <v>-932.8</v>
+        <v>358.1</v>
       </c>
       <c r="CG8" s="8">
-        <v>-93.364000000000104</v>
+        <v>35.511000000000003</v>
       </c>
       <c r="CH8" s="8">
-        <v>43.52</v>
+        <v>15.89</v>
       </c>
       <c r="CI8" s="8">
-        <v>-49.838999999999999</v>
+        <v>51.404000000000103</v>
       </c>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="9">
-        <v>-49.838999999999999</v>
+        <v>51.404000000000103</v>
       </c>
       <c r="CN8" s="10">
-        <v>39778.199999999997</v>
+        <v>41523.599999999999</v>
       </c>
       <c r="CO8" s="1"/>
       <c r="CP8" s="9">
-        <v>3926.0509999999999</v>
+        <v>4138.9260000000004</v>
       </c>
       <c r="CQ8" s="1"/>
       <c r="CR8" s="10">
-        <v>38988.6</v>
+        <v>40959.699999999997</v>
       </c>
       <c r="CS8" s="1"/>
       <c r="CT8" s="9">
-        <v>3818.43</v>
+        <v>4042.55</v>
       </c>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
       <c r="CW8" s="10">
-        <v>-789.6</v>
+        <v>-563.9</v>
       </c>
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
@@ -3741,44 +3735,44 @@
       <c r="DC8" s="1"/>
       <c r="DD8" s="1"/>
       <c r="DE8" s="8">
-        <v>-96.450999999999993</v>
+        <v>-51.195</v>
       </c>
       <c r="DF8" s="8">
-        <v>-11.176</v>
+        <v>-45.183</v>
       </c>
       <c r="DG8" s="8">
-        <v>-107.621</v>
+        <v>-96.376000000000005</v>
       </c>
       <c r="DH8" s="1"/>
       <c r="DI8" s="1"/>
       <c r="DJ8" s="1"/>
       <c r="DK8" s="9">
-        <v>-107.621</v>
+        <v>-96.376000000000005</v>
       </c>
       <c r="DL8" s="1"/>
       <c r="DM8" s="10">
-        <v>-143.19999999999999</v>
+        <v>922</v>
       </c>
       <c r="DN8" s="8">
-        <v>0.64971805412112704</v>
+        <v>61.896031003024198</v>
       </c>
       <c r="DO8" s="8">
-        <v>57.132281945878901</v>
+        <v>85.883968996975696</v>
       </c>
       <c r="DP8" s="8">
-        <v>57.781999999999996</v>
+        <v>147.78</v>
       </c>
       <c r="DQ8" s="1"/>
       <c r="DR8" s="1"/>
       <c r="DS8" s="1"/>
       <c r="DT8" s="9">
-        <v>57.781999999999996</v>
+        <v>147.78</v>
       </c>
       <c r="DU8" s="10">
-        <v>129.5</v>
+        <v>-226.5</v>
       </c>
       <c r="DV8" s="9">
-        <v>34.340000000000003</v>
+        <v>109.535</v>
       </c>
     </row>
     <row r="9" spans="1:126" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,7 +3912,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="11">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3942,11 +3936,11 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="10">
-        <v>7529</v>
+        <v>8306</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="9">
-        <v>460.07400000000001</v>
+        <v>522.66</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -3957,21 +3951,21 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="10">
-        <v>8360.2999999999993</v>
+        <v>10173.9</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="9">
-        <v>728.68899999999996</v>
+        <v>882.38400000000001</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="10">
-        <v>1703</v>
+        <v>4138</v>
       </c>
       <c r="AR10" s="1"/>
       <c r="AS10" s="9">
-        <v>305.40600000000001</v>
+        <v>410.71899999999999</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -3981,21 +3975,21 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="10">
-        <v>72995.3</v>
+        <v>74267.399999999994</v>
       </c>
       <c r="BB10" s="1"/>
       <c r="BC10" s="9">
-        <v>6382.2839999999997</v>
+        <v>6242.1140000000096</v>
       </c>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="10">
-        <v>91891.5</v>
+        <v>92468.1</v>
       </c>
       <c r="BH10" s="1"/>
       <c r="BI10" s="9">
-        <v>9586.0290000000005</v>
+        <v>9368.6710000000003</v>
       </c>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
@@ -4003,75 +3997,75 @@
       <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
       <c r="BO10" s="10">
-        <v>81449.3</v>
+        <v>80983.600000000006</v>
       </c>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="9">
-        <v>7186.4579999999896</v>
+        <v>7126.0050000000001</v>
       </c>
       <c r="BR10" s="1"/>
       <c r="BS10" s="10">
-        <v>82392.7</v>
+        <v>82495.3</v>
       </c>
       <c r="BT10" s="1"/>
       <c r="BU10" s="9">
-        <v>7228.4470000000001</v>
+        <v>7159.201</v>
       </c>
       <c r="BV10" s="1"/>
       <c r="BW10" s="10">
-        <v>80964.3</v>
+        <v>80608.2</v>
       </c>
       <c r="BX10" s="1"/>
       <c r="BY10" s="9">
-        <v>7090.4339999999902</v>
+        <v>7098.866</v>
       </c>
       <c r="BZ10" s="1"/>
       <c r="CA10" s="10">
-        <v>81155.3</v>
+        <v>81132.899999999994</v>
       </c>
       <c r="CB10" s="1"/>
       <c r="CC10" s="9">
-        <v>7104.616</v>
+        <v>7109.4629999999997</v>
       </c>
       <c r="CD10" s="1"/>
       <c r="CE10" s="1"/>
       <c r="CF10" s="10">
-        <v>161</v>
+        <v>506.7</v>
       </c>
       <c r="CG10" s="8">
-        <v>-138.15899999999999</v>
+        <v>-38.15</v>
       </c>
       <c r="CH10" s="8">
-        <v>152.34200000000001</v>
+        <v>48.744</v>
       </c>
       <c r="CI10" s="8">
-        <v>14.182</v>
+        <v>10.597</v>
       </c>
       <c r="CJ10" s="1"/>
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
       <c r="CM10" s="9">
-        <v>14.182</v>
+        <v>10.597</v>
       </c>
       <c r="CN10" s="10">
-        <v>83691.3</v>
+        <v>84145.1</v>
       </c>
       <c r="CO10" s="1"/>
       <c r="CP10" s="9">
-        <v>7368.9849999999897</v>
+        <v>7370.5689999999904</v>
       </c>
       <c r="CQ10" s="1"/>
       <c r="CR10" s="10">
-        <v>83392.3</v>
+        <v>83673.399999999994</v>
       </c>
       <c r="CS10" s="1"/>
       <c r="CT10" s="9">
-        <v>7269.134</v>
+        <v>7240.49</v>
       </c>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="10">
-        <v>-299</v>
+        <v>-471.7</v>
       </c>
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
@@ -4081,44 +4075,44 @@
       <c r="DC10" s="1"/>
       <c r="DD10" s="1"/>
       <c r="DE10" s="8">
-        <v>-91.492000000000004</v>
+        <v>-85.131999999999906</v>
       </c>
       <c r="DF10" s="8">
-        <v>-8.3589999999999804</v>
+        <v>-44.95</v>
       </c>
       <c r="DG10" s="8">
-        <v>-99.851000000000099</v>
+        <v>-130.07900000000001</v>
       </c>
       <c r="DH10" s="1"/>
       <c r="DI10" s="1"/>
       <c r="DJ10" s="1"/>
       <c r="DK10" s="9">
-        <v>-99.851000000000099</v>
+        <v>-130.07900000000001</v>
       </c>
       <c r="DL10" s="1"/>
       <c r="DM10" s="10">
-        <v>460</v>
+        <v>971.4</v>
       </c>
       <c r="DN10" s="8">
-        <v>-83.816259333639806</v>
+        <v>2.91630485666168</v>
       </c>
       <c r="DO10" s="8">
-        <v>197.84925933363999</v>
+        <v>137.75969514333801</v>
       </c>
       <c r="DP10" s="8">
-        <v>114.033</v>
+        <v>140.67599999999999</v>
       </c>
       <c r="DQ10" s="1"/>
       <c r="DR10" s="1"/>
       <c r="DS10" s="1"/>
       <c r="DT10" s="9">
-        <v>114.033</v>
+        <v>140.67599999999999</v>
       </c>
       <c r="DU10" s="10">
-        <v>886.4</v>
+        <v>1136.9000000000001</v>
       </c>
       <c r="DV10" s="9">
-        <v>104.363</v>
+        <v>97.921999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:126" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4126,7 +4120,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="11">
-        <v>4037</v>
+        <v>4123</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4150,11 +4144,11 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="10">
-        <v>19195.099999999999</v>
+        <v>27001.3</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="9">
-        <v>1211.644</v>
+        <v>2054.2820000000002</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -4165,21 +4159,21 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="10">
-        <v>23349.3</v>
+        <v>33261.300000000003</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="9">
-        <v>2151.02</v>
+        <v>3328.7860000000001</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="10">
-        <v>4845.7</v>
+        <v>9727.7000000000007</v>
       </c>
       <c r="AR11" s="1"/>
       <c r="AS11" s="9">
-        <v>726.53800000000001</v>
+        <v>1257.604</v>
       </c>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
@@ -4189,21 +4183,21 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="10">
-        <v>191175.2</v>
+        <v>198517</v>
       </c>
       <c r="BB11" s="1"/>
       <c r="BC11" s="9">
-        <v>15648.815000000001</v>
+        <v>15828.3470000001</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="10">
-        <v>239375.7</v>
+        <v>244308.5</v>
       </c>
       <c r="BH11" s="1"/>
       <c r="BI11" s="9">
-        <v>25049.205000000002</v>
+        <v>25208.433000000001</v>
       </c>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
@@ -4211,75 +4205,75 @@
       <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
       <c r="BO11" s="10">
-        <v>210264.8</v>
+        <v>213405.2</v>
       </c>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="9">
-        <v>18119.062000000202</v>
+        <v>18424.033000000101</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="10">
-        <v>210625</v>
+        <v>213114.8</v>
       </c>
       <c r="BT11" s="1"/>
       <c r="BU11" s="9">
-        <v>18101.0270000001</v>
+        <v>18602.9200000001</v>
       </c>
       <c r="BV11" s="1"/>
       <c r="BW11" s="10">
-        <v>209902.1</v>
+        <v>209659.3</v>
       </c>
       <c r="BX11" s="1"/>
       <c r="BY11" s="9">
-        <v>17941.806000000201</v>
+        <v>18061.607000000098</v>
       </c>
       <c r="BZ11" s="1"/>
       <c r="CA11" s="10">
-        <v>209535.8</v>
+        <v>211396.9</v>
       </c>
       <c r="CB11" s="1"/>
       <c r="CC11" s="9">
-        <v>17935.676000000101</v>
+        <v>18106.947000000098</v>
       </c>
       <c r="CD11" s="1"/>
       <c r="CE11" s="1"/>
       <c r="CF11" s="10">
-        <v>-468.3</v>
+        <v>1613.6</v>
       </c>
       <c r="CG11" s="8">
-        <v>-159.995</v>
+        <v>98.021999999999693</v>
       </c>
       <c r="CH11" s="8">
-        <v>153.85</v>
+        <v>-52.697000000000202</v>
       </c>
       <c r="CI11" s="8">
-        <v>-6.1300000000000798</v>
+        <v>45.34</v>
       </c>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="9">
-        <v>-6.1300000000000798</v>
+        <v>45.34</v>
       </c>
       <c r="CN11" s="10">
-        <v>216151.2</v>
+        <v>221546.2</v>
       </c>
       <c r="CO11" s="1"/>
       <c r="CP11" s="9">
-        <v>18667.042000000201</v>
+        <v>19277.817000000101</v>
       </c>
       <c r="CQ11" s="1"/>
       <c r="CR11" s="10">
-        <v>214523.7</v>
+        <v>219469.9</v>
       </c>
       <c r="CS11" s="1"/>
       <c r="CT11" s="9">
-        <v>18293.912000000098</v>
+        <v>18755.224000000198</v>
       </c>
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
       <c r="CW11" s="10">
-        <v>-1627.5</v>
+        <v>-2076.3000000000002</v>
       </c>
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
@@ -4289,44 +4283,44 @@
       <c r="DC11" s="1"/>
       <c r="DD11" s="1"/>
       <c r="DE11" s="8">
-        <v>-314.55900000000003</v>
+        <v>-307.64499999999998</v>
       </c>
       <c r="DF11" s="8">
-        <v>-58.59</v>
+        <v>-214.964</v>
       </c>
       <c r="DG11" s="8">
-        <v>-373.12999999999897</v>
+        <v>-522.59299999999905</v>
       </c>
       <c r="DH11" s="1"/>
       <c r="DI11" s="1"/>
       <c r="DJ11" s="1"/>
       <c r="DK11" s="9">
-        <v>-373.12999999999897</v>
+        <v>-522.59299999999905</v>
       </c>
       <c r="DL11" s="1"/>
       <c r="DM11" s="10">
-        <v>1154.2</v>
+        <v>3682.9</v>
       </c>
       <c r="DN11" s="8">
-        <v>101.526632215764</v>
+        <v>332.86386512126001</v>
       </c>
       <c r="DO11" s="8">
-        <v>265.47336778423602</v>
+        <v>235.06913487874101</v>
       </c>
       <c r="DP11" s="8">
-        <v>367</v>
+        <v>567.93299999999999</v>
       </c>
       <c r="DQ11" s="1"/>
       <c r="DR11" s="1"/>
       <c r="DS11" s="1"/>
       <c r="DT11" s="9">
-        <v>367</v>
+        <v>567.93299999999999</v>
       </c>
       <c r="DU11" s="10">
-        <v>1397.8</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="DV11" s="9">
-        <v>266.44799999999998</v>
+        <v>474.774</v>
       </c>
     </row>
   </sheetData>
@@ -4436,6 +4430,6 @@
     <mergeCell ref="AY1:BD1"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="10021" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>